--- a/analysis/deaths_per_week.xlsx
+++ b/analysis/deaths_per_week.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\Czech\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF122F6-4791-4FDB-A814-B84EC0C4C496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E6A057-DD11-482C-B919-466441A6F561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="22755" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -173,6 +173,15 @@
             <a:r>
               <a:rPr lang="en-US"/>
               <a:t>100 year old deaths per week starting with 1M</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>red line is a straight line. Blue is weekly deaths.</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1131,15 +1140,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
+      <xdr:colOff>195261</xdr:colOff>
       <xdr:row>870</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>885</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>888</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1171,12 +1180,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.09479</cdr:x>
-      <cdr:y>0.20833</cdr:y>
+      <cdr:x>0.05815</cdr:x>
+      <cdr:y>0.23919</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.96979</cdr:x>
-      <cdr:y>0.43056</cdr:y>
+      <cdr:x>0.97121</cdr:x>
+      <cdr:y>0.46398</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -1191,8 +1200,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="433388" y="571500"/>
-          <a:ext cx="4000500" cy="609600"/>
+          <a:off x="481014" y="790576"/>
+          <a:ext cx="7553325" cy="742950"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -1507,7 +1516,7 @@
   <dimension ref="A1:H989"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A866" workbookViewId="0">
-      <selection activeCell="R871" sqref="R871"/>
+      <selection activeCell="L868" sqref="L868"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
